--- a/results/tra_val_results/df_tra_val_all.xlsx
+++ b/results/tra_val_results/df_tra_val_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,11 +502,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['2015-01-01']</t>
+          <t>['2018-01-01']</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -527,67 +527,22 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.6830995678901672</v>
+        <v>0.6724078059196472</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7035796642303467</v>
+        <v>0.7096192240715027</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5524768829345703</v>
+        <v>0.5926524996757507</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4920634925365448</v>
+        <v>0.5059760808944702</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5277777910232544</v>
+        <v>0.5418326854705811</v>
       </c>
       <c r="M2" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>['2015-01-01']</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30</v>
-      </c>
-      <c r="E3" t="n">
-        <v>32</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>adam</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>0.6835207343101501</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.7065806984901428</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5519171357154846</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.488095223903656</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.523809552192688</v>
-      </c>
-      <c r="M3" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/results/tra_val_results/df_tra_val_all.xlsx
+++ b/results/tra_val_results/df_tra_val_all.xlsx
@@ -527,22 +527,22 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.6724078059196472</v>
+        <v>0.62750244140625</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7096192240715027</v>
+        <v>0.7422453165054321</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5926524996757507</v>
+        <v>0.6529574990272522</v>
       </c>
       <c r="K2" t="n">
         <v>0.5059760808944702</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5418326854705811</v>
+        <v>0.56175297498703</v>
       </c>
       <c r="M2" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/results/tra_val_results/df_tra_val_all.xlsx
+++ b/results/tra_val_results/df_tra_val_all.xlsx
@@ -527,22 +527,22 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.62750244140625</v>
+        <v>0.6280895471572876</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7422453165054321</v>
+        <v>0.7135024666786194</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6529574990272522</v>
+        <v>0.6531885266304016</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5059760808944702</v>
+        <v>0.5378485918045044</v>
       </c>
       <c r="L2" t="n">
         <v>0.56175297498703</v>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
